--- a/data/data_mahasiswa_akt.xlsx
+++ b/data/data_mahasiswa_akt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tahsi\OneDrive\Documents\Modul Data Analitik (R)\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65521F8-BC01-47C1-BF27-04697BAEF3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A08045-EAB7-4EB9-BB31-41005E643D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A4001EB2-6D7D-9B4C-B59B-6DA6116F86C6}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="10692" windowHeight="12336" xr2:uid="{A4001EB2-6D7D-9B4C-B59B-6DA6116F86C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,6 @@
     <t>Fikri Yurcel Milano</t>
   </si>
   <si>
-    <t>isi_asal</t>
-  </si>
-  <si>
-    <t>nama_mahasiswa</t>
-  </si>
-  <si>
     <t>Akuntansi</t>
   </si>
   <si>
@@ -85,6 +79,12 @@
   </si>
   <si>
     <t>uMur Mhsw</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>yyyyyy</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -463,33 +463,33 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>14222001</v>
+        <v>1111111</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -503,10 +503,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>19</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -537,10 +537,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>19</v>
@@ -554,13 +554,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -571,10 +571,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>21</v>
